--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2338210.327022483</v>
+        <v>2335875.215820502</v>
       </c>
     </row>
     <row r="7">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.01864114023412</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>56.91750123718776</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>18.20224829024042</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>205.7103446065871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>160.7679129414095</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>264.5251302375169</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>11.05136978754818</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>122.1528448013258</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>97.18111948505594</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7362263714912</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>106.3395663451356</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>214.438156532652</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.9967644582777</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217515</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.6665036611733</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>189.5765270689765</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>13.03790159951636</v>
+        <v>102.15578456998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>61.97958965902472</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>20.43112068612798</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888274</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>36.39209596079189</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459361</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.0420727055038</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6255456814127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>51.50556704456729</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>201.2517295315745</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>8.61604858206983</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.079005265436</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C2" t="n">
-        <v>1249.079005265436</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>890.8133066586854</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
         <v>844.329830759459</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1249.079005265436</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.079005265436</v>
+        <v>1213.292347699871</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744473</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1618.060010690416</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1421.431262850278</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1198.452782045013</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>909.3344445488508</v>
       </c>
       <c r="V4" t="n">
-        <v>1139.539555702994</v>
+        <v>654.6499563429639</v>
       </c>
       <c r="W4" t="n">
-        <v>1139.539555702994</v>
+        <v>654.6499563429639</v>
       </c>
       <c r="X4" t="n">
-        <v>1139.539555702994</v>
+        <v>654.6499563429639</v>
       </c>
       <c r="Y4" t="n">
-        <v>918.7469765594642</v>
+        <v>654.6499563429639</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1571.558046306621</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.59552936621</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2275.248289672677</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2275.248289672677</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>1944.185402329106</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>1591.416747058992</v>
       </c>
       <c r="X5" t="n">
-        <v>1961.697378282433</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="Y5" t="n">
-        <v>1571.558046306621</v>
+        <v>1217.950988797912</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>821.9680821844935</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1946.556931114679</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.3525561915583</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C7" t="n">
-        <v>359.4163732636514</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D7" t="n">
-        <v>209.2997338513157</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1410.476001669549</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1187.497520864284</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063345</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="W7" t="n">
-        <v>1158.783151063345</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="X7" t="n">
-        <v>930.7936001653281</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.001021021798</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
         <v>779.1681669784198</v>
@@ -4796,58 +4796,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>2609.016021139988</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>883.4114536130581</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>714.4752706851513</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>564.3586312728155</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1513.842048484845</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X10" t="n">
-        <v>1285.852497586828</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="Y10" t="n">
-        <v>1065.059918443298</v>
+        <v>663.3057344816946</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>221.3431781811722</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811722</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038354</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797755</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630058</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,19 +5352,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811722</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556308</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E22" t="n">
-        <v>335.9629114732377</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F22" t="n">
-        <v>189.0729639753273</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>768.5380889459582</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>618.4214495336224</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>470.5083559512293</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>323.6184084533189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>156.4223091681989</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400676</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400676</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>363.7369613277318</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6391,43 +6391,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138374</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703073</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6452,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,13 +6534,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
         <v>429.5088224239596</v>
@@ -6549,13 +6549,13 @@
         <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1654.485273605118</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2206.395003844405</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675715</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>555.8158034133954</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133954</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>737.4642682436352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7020,13 +7020,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,10 +7254,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
         <v>1103.652278938886</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1703.405732304761</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>782.8410298377091</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1413.271624709496</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>1185.282073811479</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.4894946679489</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.0329012241556</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.25823202432844</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>105.1672460959149</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>255.8421700460943</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.83521572365956</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.7605018907561</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.165476520764</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>96.94647126761447</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>152.4862366927525</v>
+        <v>63.36835372228886</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>78.31512318719916</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>126.0028419604412</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.8445769401544</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>112.2233770574205</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.19973830615865</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.54258064659095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>200.6320762792607</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>85.27126880501652</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>208.7894017452184</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="H2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.949767504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403374</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,31 +26421,31 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810795</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756619</v>
+        <v>9337.200356756584</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756597</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756603</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.200356756655</v>
+      </c>
+      <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>9337.200356756613</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.200356756541</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756588</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756548</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
@@ -26454,7 +26454,7 @@
         <v>9337.200356756613</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728634.5023096541</v>
+        <v>-728634.5023096546</v>
       </c>
       <c r="C6" t="n">
-        <v>386117.2812662654</v>
+        <v>386117.2812662655</v>
       </c>
       <c r="D6" t="n">
-        <v>226696.0112683731</v>
+        <v>226696.0112683738</v>
       </c>
       <c r="E6" t="n">
-        <v>169487.7577794855</v>
+        <v>169453.0198540495</v>
       </c>
       <c r="F6" t="n">
-        <v>494900.2195868405</v>
+        <v>494865.4816614047</v>
       </c>
       <c r="G6" t="n">
-        <v>494900.2195868404</v>
+        <v>494865.4816614046</v>
       </c>
       <c r="H6" t="n">
-        <v>494900.2195868403</v>
+        <v>494865.4816614049</v>
       </c>
       <c r="I6" t="n">
-        <v>494900.2195868404</v>
+        <v>494865.4816614049</v>
       </c>
       <c r="J6" t="n">
-        <v>327295.0417768581</v>
+        <v>327260.3038514221</v>
       </c>
       <c r="K6" t="n">
-        <v>494900.2195868405</v>
+        <v>494865.4816614048</v>
       </c>
       <c r="L6" t="n">
-        <v>446606.2495786498</v>
+        <v>446571.5116532143</v>
       </c>
       <c r="M6" t="n">
-        <v>409845.1916513286</v>
+        <v>409810.4537258931</v>
       </c>
       <c r="N6" t="n">
-        <v>494900.2195868404</v>
+        <v>494865.4816614051</v>
       </c>
       <c r="O6" t="n">
-        <v>494900.2195868407</v>
+        <v>494865.4816614052</v>
       </c>
       <c r="P6" t="n">
-        <v>494900.219586841</v>
+        <v>494865.4816614046</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>335.9117289320276</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>329.3204374188658</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>83.35532412933318</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>46.42729871724086</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>45.89027203882424</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>105.2059704409521</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>135.382592859021</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>72.5096155604117</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>272.5499811934131</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.5017122845624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>40.09439630143355</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>4.146496819442746</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28272,13 +28272,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30226,16 +30226,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,22 +31835,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>253.8670488165992</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250664</v>
+        <v>295.3955842839429</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>490.507583235568</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L21" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>452.3405299254388</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33269,7 +33269,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33652,10 +33652,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33740,16 +33740,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>687.0167715190038</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,13 +33974,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>673.7140351260975</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>263.9377611478607</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>402.8476067337651</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>505.5216991696267</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,22 +35483,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>127.0294221499325</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096361</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507074</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>351.9532034556938</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L21" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>310.2064960034205</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36759,7 +36759,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010414</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>235.501032152577</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37388,16 +37388,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>544.4205270745593</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
-        <v>531.5800012040792</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
